--- a/_Monate.xlsx
+++ b/_Monate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -259,12 +259,89 @@
     <cellStyle name="ExtConditionalStyle_1" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="76">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
@@ -337,19 +414,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
@@ -361,664 +425,6 @@
         <color rgb="FF000000"/>
         <name val="Arial"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -1179,402 +585,20 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1719,16 +743,76 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1736,7 +820,417 @@
         <color rgb="FF000000"/>
         <name val="Arial"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <font>
@@ -1817,172 +1311,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2396,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3476,7 +2804,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="129" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5131,7 +4459,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6779,7 +6107,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8442,7 +7770,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10107,7 +9435,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="116" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11662,7 +10990,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11775,7 +11103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13325,12 +12655,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="100" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -14988,16 +14318,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="145" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32 K2:K32 M2:M32">
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="between">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="between">
-      <formula>0.00001</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15005,6 +14327,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="between" id="{BA0EE46B-3ECA-489A-8218-C624CA2C5647}">
+            <xm:f>0.00001</xm:f>
+            <xm:f>Conf!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFCC"/>
+                </patternFill>
+              </fill>
+              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2:I32 K2:K32 M2:M32</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="between" id="{FBD91D82-60CE-4EB0-B8C4-9F2AE9ED3EBF}">
             <xm:f>0.00001</xm:f>
@@ -15070,30 +14407,18 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="between" id="{DB839319-561E-41C7-9FBD-DC4EE9225EBD}">
-            <xm:f>Conf!$B$3</xm:f>
-            <xm:f>Conf!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <sz val="11"/>
-                <color rgb="FF000000"/>
-                <name val="Arial"/>
-              </font>
-              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>H2:H32 J2:J32 L2:L32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="between" id="{FF4D18C1-7884-4053-A66F-2722AA93C131}">
+          <x14:cfRule type="cellIs" priority="6" operator="between" id="{2ACC3830-7256-40C7-AB49-EAF715235116}">
             <xm:f>Conf!$B$4</xm:f>
+            <xm:f>1</xm:f>
             <x14:dxf>
-              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="between" id="{76D332FB-2F57-4547-A34F-D6BE4868769B}">
-            <xm:f>Conf!$B$3</xm:f>
-            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFCC"/>
+                </patternFill>
+              </fill>
               <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
             </x14:dxf>
           </x14:cfRule>
@@ -16659,16 +15984,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="137" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32 K2:K32 M2:M32">
-    <cfRule type="cellIs" dxfId="132" priority="7" operator="between">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="8" operator="between">
-      <formula>0.00001</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16676,6 +15993,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="between" id="{8EC55134-7F37-4391-8363-4484B22E3616}">
+            <xm:f>0.00001</xm:f>
+            <xm:f>Conf!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFCC"/>
+                </patternFill>
+              </fill>
+              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2:I32 K2:K32 M2:M32</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="between" id="{1A7C3173-5CB3-4709-8F88-7D512C245250}">
             <xm:f>0.00001</xm:f>
@@ -16741,30 +16073,18 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="between" id="{B8AD8F60-A11A-4609-830C-E65299ADB634}">
-            <xm:f>Conf!$B$3</xm:f>
-            <xm:f>Conf!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <sz val="11"/>
-                <color rgb="FF000000"/>
-                <name val="Arial"/>
-              </font>
-              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>H2:H32 J2:J32 L2:L32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="between" id="{37D9CA81-A3B2-4C8F-88AE-17C746912315}">
+          <x14:cfRule type="cellIs" priority="6" operator="between" id="{11675BCF-9594-4EDA-B12B-340E5CDF9383}">
             <xm:f>Conf!$B$4</xm:f>
+            <xm:f>1</xm:f>
             <x14:dxf>
-              <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="between" id="{E4FED680-708B-43B1-8BE0-F57DF0B37A29}">
-            <xm:f>Conf!$B$3</xm:f>
-            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFCC"/>
+                </patternFill>
+              </fill>
               <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0" readingOrder="1"/>
             </x14:dxf>
           </x14:cfRule>
@@ -18332,7 +17652,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19985,7 +19305,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21648,7 +20968,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B32">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>OR(WEEKDAY(B2)=1,WEEKDAY(B2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
